--- a/file_export/bo_nhiem/thongbao_form.xlsx
+++ b/file_export/bo_nhiem/thongbao_form.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
@@ -17,12 +17,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>BAN CHẤP HÀNH TRUNG ƯƠNG</t>
-  </si>
-  <si>
-    <t>ĐOÀN TNCS HỒ CHÍ MINH</t>
-  </si>
   <si>
     <t>***</t>
   </si>
@@ -111,6 +105,12 @@
   </si>
   <si>
     <t>sinh ngày</t>
+  </si>
+  <si>
+    <t>BỘ GIAO THÔNG VẬN TẢI</t>
+  </si>
+  <si>
+    <t>TRƯỜNG ĐẠI HỌC CÔNG NGHỆ GIAO THÔNG VẬN TẢI</t>
   </si>
 </sst>
 </file>
@@ -139,19 +139,18 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="13"/>
+      <i/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,20 +173,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -203,10 +196,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -217,6 +210,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,197 +517,208 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="8" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="7.42578125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="9" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="F11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="I12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+    <row r="22" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="E23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="8" t="s">
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E30" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="E23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:I1"/>
     <mergeCell ref="E30:H30"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A4:D4"/>
